--- a/Знания.xlsx
+++ b/Знания.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\3 курс 1 семестр\БД и ЭС\ESOperatorTaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D24F5AE-3086-427E-A601-D7372875930D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F50397-931E-407D-8A6D-8E7BC2B04471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A47B0A7-0FFD-490F-8EED-5CA26E8E5E61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0A47B0A7-0FFD-490F-8EED-5CA26E8E5E61}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Определение водителя" sheetId="1" r:id="rId1"/>
+    <sheet name="Определение цены" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="17">
   <si>
     <t>Удаленность</t>
   </si>
@@ -61,6 +62,21 @@
   </si>
   <si>
     <t>4 (недопустимо)</t>
+  </si>
+  <si>
+    <t>Расстояние</t>
+  </si>
+  <si>
+    <t>Цена за км</t>
+  </si>
+  <si>
+    <t>Посадка</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>5&gt;</t>
   </si>
 </sst>
 </file>
@@ -126,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -150,6 +166,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -159,6 +188,51 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -280,6 +354,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -345,29 +432,47 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,81 +485,134 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -771,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2A5732-302C-4733-8216-C36C5DFA6B8D}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +939,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" customWidth="1"/>
   </cols>
@@ -799,180 +957,182 @@
       <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="30">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
-        <v>5</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13">
+        <v>5</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="31">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="36">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="18">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5" t="s">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
-        <v>5</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="A10" s="13">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="24">
@@ -980,13 +1140,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="25">
@@ -994,13 +1154,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
-        <v>5</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="26">
@@ -1008,27 +1168,27 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="32">
@@ -1036,10 +1196,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
-        <v>5</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="13">
+        <v>5</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="33" t="s">
@@ -1050,55 +1210,55 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>1</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="18">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>2</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
-        <v>5</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="A19" s="13">
+        <v>5</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>1</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="24">
@@ -1106,13 +1266,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>2</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="25">
@@ -1120,13 +1280,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
-        <v>5</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="A22" s="13">
+        <v>5</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="26">
@@ -1134,13 +1294,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>1</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="8">
+        <v>1</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="24">
@@ -1148,13 +1308,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>2</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="11">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="25">
@@ -1162,13 +1322,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14">
-        <v>5</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="19" t="s">
+      <c r="A25" s="13">
+        <v>5</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="26">
@@ -1176,27 +1336,27 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>1</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="34">
@@ -1204,18 +1364,171 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
-        <v>5</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="23" t="s">
+      <c r="A28" s="13">
+        <v>5</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="31">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9073C2-5F11-4CDA-B209-5BB169D7ED43}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="45">
+        <v>28</v>
+      </c>
+      <c r="D3" s="46">
+        <v>20</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="38">
+        <v>22</v>
+      </c>
+      <c r="D4" s="48">
+        <v>20</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="45">
+        <v>30</v>
+      </c>
+      <c r="D6" s="46">
+        <v>40</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="38">
+        <v>25</v>
+      </c>
+      <c r="D7" s="48">
+        <v>40</v>
+      </c>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="45">
+        <v>40</v>
+      </c>
+      <c r="D8" s="46">
+        <v>100</v>
+      </c>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="38">
+        <v>30</v>
+      </c>
+      <c r="D9" s="48">
+        <v>100</v>
+      </c>
+      <c r="F9" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
